--- a/unity-business-innovation/src/main/resources/template/invest.xlsx
+++ b/unity-business-innovation/src/main/resources/template/invest.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55842304-BD36-4C92-98B5-EFA592DBACA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43248321-8043-634F-BE38-574F7E9B93D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="8100" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>行业类别</t>
   </si>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题占位符</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +114,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑 Bold"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Bold"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -120,7 +143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="41"/>
+        <fgColor rgb="FF05CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,11 +224,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -218,15 +238,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -510,29 +534,29 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.1640625" customWidth="1"/>
     <col min="3" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="55" customWidth="1"/>
     <col min="7" max="7" width="27.5" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="12" width="27.5" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
     <col min="14" max="15" width="16.5" customWidth="1"/>
     <col min="16" max="16" width="9.1640625" customWidth="1"/>
     <col min="257" max="257" width="9.1640625" customWidth="1"/>
     <col min="258" max="258" width="27.5" customWidth="1"/>
     <col min="259" max="259" width="55" customWidth="1"/>
     <col min="260" max="260" width="27.5" customWidth="1"/>
-    <col min="261" max="261" width="13.75" customWidth="1"/>
+    <col min="261" max="261" width="13.6640625" customWidth="1"/>
     <col min="262" max="262" width="18.33203125" customWidth="1"/>
     <col min="263" max="265" width="27.5" customWidth="1"/>
-    <col min="266" max="267" width="13.75" customWidth="1"/>
+    <col min="266" max="267" width="13.6640625" customWidth="1"/>
     <col min="268" max="269" width="16.5" customWidth="1"/>
     <col min="270" max="271" width="9.1640625" customWidth="1"/>
     <col min="272" max="272" width="27.5" customWidth="1"/>
@@ -540,10 +564,10 @@
     <col min="514" max="514" width="27.5" customWidth="1"/>
     <col min="515" max="515" width="55" customWidth="1"/>
     <col min="516" max="516" width="27.5" customWidth="1"/>
-    <col min="517" max="517" width="13.75" customWidth="1"/>
+    <col min="517" max="517" width="13.6640625" customWidth="1"/>
     <col min="518" max="518" width="18.33203125" customWidth="1"/>
     <col min="519" max="521" width="27.5" customWidth="1"/>
-    <col min="522" max="523" width="13.75" customWidth="1"/>
+    <col min="522" max="523" width="13.6640625" customWidth="1"/>
     <col min="524" max="525" width="16.5" customWidth="1"/>
     <col min="526" max="527" width="9.1640625" customWidth="1"/>
     <col min="528" max="528" width="27.5" customWidth="1"/>
@@ -551,10 +575,10 @@
     <col min="770" max="770" width="27.5" customWidth="1"/>
     <col min="771" max="771" width="55" customWidth="1"/>
     <col min="772" max="772" width="27.5" customWidth="1"/>
-    <col min="773" max="773" width="13.75" customWidth="1"/>
+    <col min="773" max="773" width="13.6640625" customWidth="1"/>
     <col min="774" max="774" width="18.33203125" customWidth="1"/>
     <col min="775" max="777" width="27.5" customWidth="1"/>
-    <col min="778" max="779" width="13.75" customWidth="1"/>
+    <col min="778" max="779" width="13.6640625" customWidth="1"/>
     <col min="780" max="781" width="16.5" customWidth="1"/>
     <col min="782" max="783" width="9.1640625" customWidth="1"/>
     <col min="784" max="784" width="27.5" customWidth="1"/>
@@ -562,10 +586,10 @@
     <col min="1026" max="1026" width="27.5" customWidth="1"/>
     <col min="1027" max="1027" width="55" customWidth="1"/>
     <col min="1028" max="1028" width="27.5" customWidth="1"/>
-    <col min="1029" max="1029" width="13.75" customWidth="1"/>
+    <col min="1029" max="1029" width="13.6640625" customWidth="1"/>
     <col min="1030" max="1030" width="18.33203125" customWidth="1"/>
     <col min="1031" max="1033" width="27.5" customWidth="1"/>
-    <col min="1034" max="1035" width="13.75" customWidth="1"/>
+    <col min="1034" max="1035" width="13.6640625" customWidth="1"/>
     <col min="1036" max="1037" width="16.5" customWidth="1"/>
     <col min="1038" max="1039" width="9.1640625" customWidth="1"/>
     <col min="1040" max="1040" width="27.5" customWidth="1"/>
@@ -573,10 +597,10 @@
     <col min="1282" max="1282" width="27.5" customWidth="1"/>
     <col min="1283" max="1283" width="55" customWidth="1"/>
     <col min="1284" max="1284" width="27.5" customWidth="1"/>
-    <col min="1285" max="1285" width="13.75" customWidth="1"/>
+    <col min="1285" max="1285" width="13.6640625" customWidth="1"/>
     <col min="1286" max="1286" width="18.33203125" customWidth="1"/>
     <col min="1287" max="1289" width="27.5" customWidth="1"/>
-    <col min="1290" max="1291" width="13.75" customWidth="1"/>
+    <col min="1290" max="1291" width="13.6640625" customWidth="1"/>
     <col min="1292" max="1293" width="16.5" customWidth="1"/>
     <col min="1294" max="1295" width="9.1640625" customWidth="1"/>
     <col min="1296" max="1296" width="27.5" customWidth="1"/>
@@ -584,10 +608,10 @@
     <col min="1538" max="1538" width="27.5" customWidth="1"/>
     <col min="1539" max="1539" width="55" customWidth="1"/>
     <col min="1540" max="1540" width="27.5" customWidth="1"/>
-    <col min="1541" max="1541" width="13.75" customWidth="1"/>
+    <col min="1541" max="1541" width="13.6640625" customWidth="1"/>
     <col min="1542" max="1542" width="18.33203125" customWidth="1"/>
     <col min="1543" max="1545" width="27.5" customWidth="1"/>
-    <col min="1546" max="1547" width="13.75" customWidth="1"/>
+    <col min="1546" max="1547" width="13.6640625" customWidth="1"/>
     <col min="1548" max="1549" width="16.5" customWidth="1"/>
     <col min="1550" max="1551" width="9.1640625" customWidth="1"/>
     <col min="1552" max="1552" width="27.5" customWidth="1"/>
@@ -595,10 +619,10 @@
     <col min="1794" max="1794" width="27.5" customWidth="1"/>
     <col min="1795" max="1795" width="55" customWidth="1"/>
     <col min="1796" max="1796" width="27.5" customWidth="1"/>
-    <col min="1797" max="1797" width="13.75" customWidth="1"/>
+    <col min="1797" max="1797" width="13.6640625" customWidth="1"/>
     <col min="1798" max="1798" width="18.33203125" customWidth="1"/>
     <col min="1799" max="1801" width="27.5" customWidth="1"/>
-    <col min="1802" max="1803" width="13.75" customWidth="1"/>
+    <col min="1802" max="1803" width="13.6640625" customWidth="1"/>
     <col min="1804" max="1805" width="16.5" customWidth="1"/>
     <col min="1806" max="1807" width="9.1640625" customWidth="1"/>
     <col min="1808" max="1808" width="27.5" customWidth="1"/>
@@ -606,10 +630,10 @@
     <col min="2050" max="2050" width="27.5" customWidth="1"/>
     <col min="2051" max="2051" width="55" customWidth="1"/>
     <col min="2052" max="2052" width="27.5" customWidth="1"/>
-    <col min="2053" max="2053" width="13.75" customWidth="1"/>
+    <col min="2053" max="2053" width="13.6640625" customWidth="1"/>
     <col min="2054" max="2054" width="18.33203125" customWidth="1"/>
     <col min="2055" max="2057" width="27.5" customWidth="1"/>
-    <col min="2058" max="2059" width="13.75" customWidth="1"/>
+    <col min="2058" max="2059" width="13.6640625" customWidth="1"/>
     <col min="2060" max="2061" width="16.5" customWidth="1"/>
     <col min="2062" max="2063" width="9.1640625" customWidth="1"/>
     <col min="2064" max="2064" width="27.5" customWidth="1"/>
@@ -617,10 +641,10 @@
     <col min="2306" max="2306" width="27.5" customWidth="1"/>
     <col min="2307" max="2307" width="55" customWidth="1"/>
     <col min="2308" max="2308" width="27.5" customWidth="1"/>
-    <col min="2309" max="2309" width="13.75" customWidth="1"/>
+    <col min="2309" max="2309" width="13.6640625" customWidth="1"/>
     <col min="2310" max="2310" width="18.33203125" customWidth="1"/>
     <col min="2311" max="2313" width="27.5" customWidth="1"/>
-    <col min="2314" max="2315" width="13.75" customWidth="1"/>
+    <col min="2314" max="2315" width="13.6640625" customWidth="1"/>
     <col min="2316" max="2317" width="16.5" customWidth="1"/>
     <col min="2318" max="2319" width="9.1640625" customWidth="1"/>
     <col min="2320" max="2320" width="27.5" customWidth="1"/>
@@ -628,10 +652,10 @@
     <col min="2562" max="2562" width="27.5" customWidth="1"/>
     <col min="2563" max="2563" width="55" customWidth="1"/>
     <col min="2564" max="2564" width="27.5" customWidth="1"/>
-    <col min="2565" max="2565" width="13.75" customWidth="1"/>
+    <col min="2565" max="2565" width="13.6640625" customWidth="1"/>
     <col min="2566" max="2566" width="18.33203125" customWidth="1"/>
     <col min="2567" max="2569" width="27.5" customWidth="1"/>
-    <col min="2570" max="2571" width="13.75" customWidth="1"/>
+    <col min="2570" max="2571" width="13.6640625" customWidth="1"/>
     <col min="2572" max="2573" width="16.5" customWidth="1"/>
     <col min="2574" max="2575" width="9.1640625" customWidth="1"/>
     <col min="2576" max="2576" width="27.5" customWidth="1"/>
@@ -639,10 +663,10 @@
     <col min="2818" max="2818" width="27.5" customWidth="1"/>
     <col min="2819" max="2819" width="55" customWidth="1"/>
     <col min="2820" max="2820" width="27.5" customWidth="1"/>
-    <col min="2821" max="2821" width="13.75" customWidth="1"/>
+    <col min="2821" max="2821" width="13.6640625" customWidth="1"/>
     <col min="2822" max="2822" width="18.33203125" customWidth="1"/>
     <col min="2823" max="2825" width="27.5" customWidth="1"/>
-    <col min="2826" max="2827" width="13.75" customWidth="1"/>
+    <col min="2826" max="2827" width="13.6640625" customWidth="1"/>
     <col min="2828" max="2829" width="16.5" customWidth="1"/>
     <col min="2830" max="2831" width="9.1640625" customWidth="1"/>
     <col min="2832" max="2832" width="27.5" customWidth="1"/>
@@ -650,10 +674,10 @@
     <col min="3074" max="3074" width="27.5" customWidth="1"/>
     <col min="3075" max="3075" width="55" customWidth="1"/>
     <col min="3076" max="3076" width="27.5" customWidth="1"/>
-    <col min="3077" max="3077" width="13.75" customWidth="1"/>
+    <col min="3077" max="3077" width="13.6640625" customWidth="1"/>
     <col min="3078" max="3078" width="18.33203125" customWidth="1"/>
     <col min="3079" max="3081" width="27.5" customWidth="1"/>
-    <col min="3082" max="3083" width="13.75" customWidth="1"/>
+    <col min="3082" max="3083" width="13.6640625" customWidth="1"/>
     <col min="3084" max="3085" width="16.5" customWidth="1"/>
     <col min="3086" max="3087" width="9.1640625" customWidth="1"/>
     <col min="3088" max="3088" width="27.5" customWidth="1"/>
@@ -661,10 +685,10 @@
     <col min="3330" max="3330" width="27.5" customWidth="1"/>
     <col min="3331" max="3331" width="55" customWidth="1"/>
     <col min="3332" max="3332" width="27.5" customWidth="1"/>
-    <col min="3333" max="3333" width="13.75" customWidth="1"/>
+    <col min="3333" max="3333" width="13.6640625" customWidth="1"/>
     <col min="3334" max="3334" width="18.33203125" customWidth="1"/>
     <col min="3335" max="3337" width="27.5" customWidth="1"/>
-    <col min="3338" max="3339" width="13.75" customWidth="1"/>
+    <col min="3338" max="3339" width="13.6640625" customWidth="1"/>
     <col min="3340" max="3341" width="16.5" customWidth="1"/>
     <col min="3342" max="3343" width="9.1640625" customWidth="1"/>
     <col min="3344" max="3344" width="27.5" customWidth="1"/>
@@ -672,10 +696,10 @@
     <col min="3586" max="3586" width="27.5" customWidth="1"/>
     <col min="3587" max="3587" width="55" customWidth="1"/>
     <col min="3588" max="3588" width="27.5" customWidth="1"/>
-    <col min="3589" max="3589" width="13.75" customWidth="1"/>
+    <col min="3589" max="3589" width="13.6640625" customWidth="1"/>
     <col min="3590" max="3590" width="18.33203125" customWidth="1"/>
     <col min="3591" max="3593" width="27.5" customWidth="1"/>
-    <col min="3594" max="3595" width="13.75" customWidth="1"/>
+    <col min="3594" max="3595" width="13.6640625" customWidth="1"/>
     <col min="3596" max="3597" width="16.5" customWidth="1"/>
     <col min="3598" max="3599" width="9.1640625" customWidth="1"/>
     <col min="3600" max="3600" width="27.5" customWidth="1"/>
@@ -683,10 +707,10 @@
     <col min="3842" max="3842" width="27.5" customWidth="1"/>
     <col min="3843" max="3843" width="55" customWidth="1"/>
     <col min="3844" max="3844" width="27.5" customWidth="1"/>
-    <col min="3845" max="3845" width="13.75" customWidth="1"/>
+    <col min="3845" max="3845" width="13.6640625" customWidth="1"/>
     <col min="3846" max="3846" width="18.33203125" customWidth="1"/>
     <col min="3847" max="3849" width="27.5" customWidth="1"/>
-    <col min="3850" max="3851" width="13.75" customWidth="1"/>
+    <col min="3850" max="3851" width="13.6640625" customWidth="1"/>
     <col min="3852" max="3853" width="16.5" customWidth="1"/>
     <col min="3854" max="3855" width="9.1640625" customWidth="1"/>
     <col min="3856" max="3856" width="27.5" customWidth="1"/>
@@ -694,10 +718,10 @@
     <col min="4098" max="4098" width="27.5" customWidth="1"/>
     <col min="4099" max="4099" width="55" customWidth="1"/>
     <col min="4100" max="4100" width="27.5" customWidth="1"/>
-    <col min="4101" max="4101" width="13.75" customWidth="1"/>
+    <col min="4101" max="4101" width="13.6640625" customWidth="1"/>
     <col min="4102" max="4102" width="18.33203125" customWidth="1"/>
     <col min="4103" max="4105" width="27.5" customWidth="1"/>
-    <col min="4106" max="4107" width="13.75" customWidth="1"/>
+    <col min="4106" max="4107" width="13.6640625" customWidth="1"/>
     <col min="4108" max="4109" width="16.5" customWidth="1"/>
     <col min="4110" max="4111" width="9.1640625" customWidth="1"/>
     <col min="4112" max="4112" width="27.5" customWidth="1"/>
@@ -705,10 +729,10 @@
     <col min="4354" max="4354" width="27.5" customWidth="1"/>
     <col min="4355" max="4355" width="55" customWidth="1"/>
     <col min="4356" max="4356" width="27.5" customWidth="1"/>
-    <col min="4357" max="4357" width="13.75" customWidth="1"/>
+    <col min="4357" max="4357" width="13.6640625" customWidth="1"/>
     <col min="4358" max="4358" width="18.33203125" customWidth="1"/>
     <col min="4359" max="4361" width="27.5" customWidth="1"/>
-    <col min="4362" max="4363" width="13.75" customWidth="1"/>
+    <col min="4362" max="4363" width="13.6640625" customWidth="1"/>
     <col min="4364" max="4365" width="16.5" customWidth="1"/>
     <col min="4366" max="4367" width="9.1640625" customWidth="1"/>
     <col min="4368" max="4368" width="27.5" customWidth="1"/>
@@ -716,10 +740,10 @@
     <col min="4610" max="4610" width="27.5" customWidth="1"/>
     <col min="4611" max="4611" width="55" customWidth="1"/>
     <col min="4612" max="4612" width="27.5" customWidth="1"/>
-    <col min="4613" max="4613" width="13.75" customWidth="1"/>
+    <col min="4613" max="4613" width="13.6640625" customWidth="1"/>
     <col min="4614" max="4614" width="18.33203125" customWidth="1"/>
     <col min="4615" max="4617" width="27.5" customWidth="1"/>
-    <col min="4618" max="4619" width="13.75" customWidth="1"/>
+    <col min="4618" max="4619" width="13.6640625" customWidth="1"/>
     <col min="4620" max="4621" width="16.5" customWidth="1"/>
     <col min="4622" max="4623" width="9.1640625" customWidth="1"/>
     <col min="4624" max="4624" width="27.5" customWidth="1"/>
@@ -727,10 +751,10 @@
     <col min="4866" max="4866" width="27.5" customWidth="1"/>
     <col min="4867" max="4867" width="55" customWidth="1"/>
     <col min="4868" max="4868" width="27.5" customWidth="1"/>
-    <col min="4869" max="4869" width="13.75" customWidth="1"/>
+    <col min="4869" max="4869" width="13.6640625" customWidth="1"/>
     <col min="4870" max="4870" width="18.33203125" customWidth="1"/>
     <col min="4871" max="4873" width="27.5" customWidth="1"/>
-    <col min="4874" max="4875" width="13.75" customWidth="1"/>
+    <col min="4874" max="4875" width="13.6640625" customWidth="1"/>
     <col min="4876" max="4877" width="16.5" customWidth="1"/>
     <col min="4878" max="4879" width="9.1640625" customWidth="1"/>
     <col min="4880" max="4880" width="27.5" customWidth="1"/>
@@ -738,10 +762,10 @@
     <col min="5122" max="5122" width="27.5" customWidth="1"/>
     <col min="5123" max="5123" width="55" customWidth="1"/>
     <col min="5124" max="5124" width="27.5" customWidth="1"/>
-    <col min="5125" max="5125" width="13.75" customWidth="1"/>
+    <col min="5125" max="5125" width="13.6640625" customWidth="1"/>
     <col min="5126" max="5126" width="18.33203125" customWidth="1"/>
     <col min="5127" max="5129" width="27.5" customWidth="1"/>
-    <col min="5130" max="5131" width="13.75" customWidth="1"/>
+    <col min="5130" max="5131" width="13.6640625" customWidth="1"/>
     <col min="5132" max="5133" width="16.5" customWidth="1"/>
     <col min="5134" max="5135" width="9.1640625" customWidth="1"/>
     <col min="5136" max="5136" width="27.5" customWidth="1"/>
@@ -749,10 +773,10 @@
     <col min="5378" max="5378" width="27.5" customWidth="1"/>
     <col min="5379" max="5379" width="55" customWidth="1"/>
     <col min="5380" max="5380" width="27.5" customWidth="1"/>
-    <col min="5381" max="5381" width="13.75" customWidth="1"/>
+    <col min="5381" max="5381" width="13.6640625" customWidth="1"/>
     <col min="5382" max="5382" width="18.33203125" customWidth="1"/>
     <col min="5383" max="5385" width="27.5" customWidth="1"/>
-    <col min="5386" max="5387" width="13.75" customWidth="1"/>
+    <col min="5386" max="5387" width="13.6640625" customWidth="1"/>
     <col min="5388" max="5389" width="16.5" customWidth="1"/>
     <col min="5390" max="5391" width="9.1640625" customWidth="1"/>
     <col min="5392" max="5392" width="27.5" customWidth="1"/>
@@ -760,10 +784,10 @@
     <col min="5634" max="5634" width="27.5" customWidth="1"/>
     <col min="5635" max="5635" width="55" customWidth="1"/>
     <col min="5636" max="5636" width="27.5" customWidth="1"/>
-    <col min="5637" max="5637" width="13.75" customWidth="1"/>
+    <col min="5637" max="5637" width="13.6640625" customWidth="1"/>
     <col min="5638" max="5638" width="18.33203125" customWidth="1"/>
     <col min="5639" max="5641" width="27.5" customWidth="1"/>
-    <col min="5642" max="5643" width="13.75" customWidth="1"/>
+    <col min="5642" max="5643" width="13.6640625" customWidth="1"/>
     <col min="5644" max="5645" width="16.5" customWidth="1"/>
     <col min="5646" max="5647" width="9.1640625" customWidth="1"/>
     <col min="5648" max="5648" width="27.5" customWidth="1"/>
@@ -771,10 +795,10 @@
     <col min="5890" max="5890" width="27.5" customWidth="1"/>
     <col min="5891" max="5891" width="55" customWidth="1"/>
     <col min="5892" max="5892" width="27.5" customWidth="1"/>
-    <col min="5893" max="5893" width="13.75" customWidth="1"/>
+    <col min="5893" max="5893" width="13.6640625" customWidth="1"/>
     <col min="5894" max="5894" width="18.33203125" customWidth="1"/>
     <col min="5895" max="5897" width="27.5" customWidth="1"/>
-    <col min="5898" max="5899" width="13.75" customWidth="1"/>
+    <col min="5898" max="5899" width="13.6640625" customWidth="1"/>
     <col min="5900" max="5901" width="16.5" customWidth="1"/>
     <col min="5902" max="5903" width="9.1640625" customWidth="1"/>
     <col min="5904" max="5904" width="27.5" customWidth="1"/>
@@ -782,10 +806,10 @@
     <col min="6146" max="6146" width="27.5" customWidth="1"/>
     <col min="6147" max="6147" width="55" customWidth="1"/>
     <col min="6148" max="6148" width="27.5" customWidth="1"/>
-    <col min="6149" max="6149" width="13.75" customWidth="1"/>
+    <col min="6149" max="6149" width="13.6640625" customWidth="1"/>
     <col min="6150" max="6150" width="18.33203125" customWidth="1"/>
     <col min="6151" max="6153" width="27.5" customWidth="1"/>
-    <col min="6154" max="6155" width="13.75" customWidth="1"/>
+    <col min="6154" max="6155" width="13.6640625" customWidth="1"/>
     <col min="6156" max="6157" width="16.5" customWidth="1"/>
     <col min="6158" max="6159" width="9.1640625" customWidth="1"/>
     <col min="6160" max="6160" width="27.5" customWidth="1"/>
@@ -793,10 +817,10 @@
     <col min="6402" max="6402" width="27.5" customWidth="1"/>
     <col min="6403" max="6403" width="55" customWidth="1"/>
     <col min="6404" max="6404" width="27.5" customWidth="1"/>
-    <col min="6405" max="6405" width="13.75" customWidth="1"/>
+    <col min="6405" max="6405" width="13.6640625" customWidth="1"/>
     <col min="6406" max="6406" width="18.33203125" customWidth="1"/>
     <col min="6407" max="6409" width="27.5" customWidth="1"/>
-    <col min="6410" max="6411" width="13.75" customWidth="1"/>
+    <col min="6410" max="6411" width="13.6640625" customWidth="1"/>
     <col min="6412" max="6413" width="16.5" customWidth="1"/>
     <col min="6414" max="6415" width="9.1640625" customWidth="1"/>
     <col min="6416" max="6416" width="27.5" customWidth="1"/>
@@ -804,10 +828,10 @@
     <col min="6658" max="6658" width="27.5" customWidth="1"/>
     <col min="6659" max="6659" width="55" customWidth="1"/>
     <col min="6660" max="6660" width="27.5" customWidth="1"/>
-    <col min="6661" max="6661" width="13.75" customWidth="1"/>
+    <col min="6661" max="6661" width="13.6640625" customWidth="1"/>
     <col min="6662" max="6662" width="18.33203125" customWidth="1"/>
     <col min="6663" max="6665" width="27.5" customWidth="1"/>
-    <col min="6666" max="6667" width="13.75" customWidth="1"/>
+    <col min="6666" max="6667" width="13.6640625" customWidth="1"/>
     <col min="6668" max="6669" width="16.5" customWidth="1"/>
     <col min="6670" max="6671" width="9.1640625" customWidth="1"/>
     <col min="6672" max="6672" width="27.5" customWidth="1"/>
@@ -815,10 +839,10 @@
     <col min="6914" max="6914" width="27.5" customWidth="1"/>
     <col min="6915" max="6915" width="55" customWidth="1"/>
     <col min="6916" max="6916" width="27.5" customWidth="1"/>
-    <col min="6917" max="6917" width="13.75" customWidth="1"/>
+    <col min="6917" max="6917" width="13.6640625" customWidth="1"/>
     <col min="6918" max="6918" width="18.33203125" customWidth="1"/>
     <col min="6919" max="6921" width="27.5" customWidth="1"/>
-    <col min="6922" max="6923" width="13.75" customWidth="1"/>
+    <col min="6922" max="6923" width="13.6640625" customWidth="1"/>
     <col min="6924" max="6925" width="16.5" customWidth="1"/>
     <col min="6926" max="6927" width="9.1640625" customWidth="1"/>
     <col min="6928" max="6928" width="27.5" customWidth="1"/>
@@ -826,10 +850,10 @@
     <col min="7170" max="7170" width="27.5" customWidth="1"/>
     <col min="7171" max="7171" width="55" customWidth="1"/>
     <col min="7172" max="7172" width="27.5" customWidth="1"/>
-    <col min="7173" max="7173" width="13.75" customWidth="1"/>
+    <col min="7173" max="7173" width="13.6640625" customWidth="1"/>
     <col min="7174" max="7174" width="18.33203125" customWidth="1"/>
     <col min="7175" max="7177" width="27.5" customWidth="1"/>
-    <col min="7178" max="7179" width="13.75" customWidth="1"/>
+    <col min="7178" max="7179" width="13.6640625" customWidth="1"/>
     <col min="7180" max="7181" width="16.5" customWidth="1"/>
     <col min="7182" max="7183" width="9.1640625" customWidth="1"/>
     <col min="7184" max="7184" width="27.5" customWidth="1"/>
@@ -837,10 +861,10 @@
     <col min="7426" max="7426" width="27.5" customWidth="1"/>
     <col min="7427" max="7427" width="55" customWidth="1"/>
     <col min="7428" max="7428" width="27.5" customWidth="1"/>
-    <col min="7429" max="7429" width="13.75" customWidth="1"/>
+    <col min="7429" max="7429" width="13.6640625" customWidth="1"/>
     <col min="7430" max="7430" width="18.33203125" customWidth="1"/>
     <col min="7431" max="7433" width="27.5" customWidth="1"/>
-    <col min="7434" max="7435" width="13.75" customWidth="1"/>
+    <col min="7434" max="7435" width="13.6640625" customWidth="1"/>
     <col min="7436" max="7437" width="16.5" customWidth="1"/>
     <col min="7438" max="7439" width="9.1640625" customWidth="1"/>
     <col min="7440" max="7440" width="27.5" customWidth="1"/>
@@ -848,10 +872,10 @@
     <col min="7682" max="7682" width="27.5" customWidth="1"/>
     <col min="7683" max="7683" width="55" customWidth="1"/>
     <col min="7684" max="7684" width="27.5" customWidth="1"/>
-    <col min="7685" max="7685" width="13.75" customWidth="1"/>
+    <col min="7685" max="7685" width="13.6640625" customWidth="1"/>
     <col min="7686" max="7686" width="18.33203125" customWidth="1"/>
     <col min="7687" max="7689" width="27.5" customWidth="1"/>
-    <col min="7690" max="7691" width="13.75" customWidth="1"/>
+    <col min="7690" max="7691" width="13.6640625" customWidth="1"/>
     <col min="7692" max="7693" width="16.5" customWidth="1"/>
     <col min="7694" max="7695" width="9.1640625" customWidth="1"/>
     <col min="7696" max="7696" width="27.5" customWidth="1"/>
@@ -859,10 +883,10 @@
     <col min="7938" max="7938" width="27.5" customWidth="1"/>
     <col min="7939" max="7939" width="55" customWidth="1"/>
     <col min="7940" max="7940" width="27.5" customWidth="1"/>
-    <col min="7941" max="7941" width="13.75" customWidth="1"/>
+    <col min="7941" max="7941" width="13.6640625" customWidth="1"/>
     <col min="7942" max="7942" width="18.33203125" customWidth="1"/>
     <col min="7943" max="7945" width="27.5" customWidth="1"/>
-    <col min="7946" max="7947" width="13.75" customWidth="1"/>
+    <col min="7946" max="7947" width="13.6640625" customWidth="1"/>
     <col min="7948" max="7949" width="16.5" customWidth="1"/>
     <col min="7950" max="7951" width="9.1640625" customWidth="1"/>
     <col min="7952" max="7952" width="27.5" customWidth="1"/>
@@ -870,10 +894,10 @@
     <col min="8194" max="8194" width="27.5" customWidth="1"/>
     <col min="8195" max="8195" width="55" customWidth="1"/>
     <col min="8196" max="8196" width="27.5" customWidth="1"/>
-    <col min="8197" max="8197" width="13.75" customWidth="1"/>
+    <col min="8197" max="8197" width="13.6640625" customWidth="1"/>
     <col min="8198" max="8198" width="18.33203125" customWidth="1"/>
     <col min="8199" max="8201" width="27.5" customWidth="1"/>
-    <col min="8202" max="8203" width="13.75" customWidth="1"/>
+    <col min="8202" max="8203" width="13.6640625" customWidth="1"/>
     <col min="8204" max="8205" width="16.5" customWidth="1"/>
     <col min="8206" max="8207" width="9.1640625" customWidth="1"/>
     <col min="8208" max="8208" width="27.5" customWidth="1"/>
@@ -881,10 +905,10 @@
     <col min="8450" max="8450" width="27.5" customWidth="1"/>
     <col min="8451" max="8451" width="55" customWidth="1"/>
     <col min="8452" max="8452" width="27.5" customWidth="1"/>
-    <col min="8453" max="8453" width="13.75" customWidth="1"/>
+    <col min="8453" max="8453" width="13.6640625" customWidth="1"/>
     <col min="8454" max="8454" width="18.33203125" customWidth="1"/>
     <col min="8455" max="8457" width="27.5" customWidth="1"/>
-    <col min="8458" max="8459" width="13.75" customWidth="1"/>
+    <col min="8458" max="8459" width="13.6640625" customWidth="1"/>
     <col min="8460" max="8461" width="16.5" customWidth="1"/>
     <col min="8462" max="8463" width="9.1640625" customWidth="1"/>
     <col min="8464" max="8464" width="27.5" customWidth="1"/>
@@ -892,10 +916,10 @@
     <col min="8706" max="8706" width="27.5" customWidth="1"/>
     <col min="8707" max="8707" width="55" customWidth="1"/>
     <col min="8708" max="8708" width="27.5" customWidth="1"/>
-    <col min="8709" max="8709" width="13.75" customWidth="1"/>
+    <col min="8709" max="8709" width="13.6640625" customWidth="1"/>
     <col min="8710" max="8710" width="18.33203125" customWidth="1"/>
     <col min="8711" max="8713" width="27.5" customWidth="1"/>
-    <col min="8714" max="8715" width="13.75" customWidth="1"/>
+    <col min="8714" max="8715" width="13.6640625" customWidth="1"/>
     <col min="8716" max="8717" width="16.5" customWidth="1"/>
     <col min="8718" max="8719" width="9.1640625" customWidth="1"/>
     <col min="8720" max="8720" width="27.5" customWidth="1"/>
@@ -903,10 +927,10 @@
     <col min="8962" max="8962" width="27.5" customWidth="1"/>
     <col min="8963" max="8963" width="55" customWidth="1"/>
     <col min="8964" max="8964" width="27.5" customWidth="1"/>
-    <col min="8965" max="8965" width="13.75" customWidth="1"/>
+    <col min="8965" max="8965" width="13.6640625" customWidth="1"/>
     <col min="8966" max="8966" width="18.33203125" customWidth="1"/>
     <col min="8967" max="8969" width="27.5" customWidth="1"/>
-    <col min="8970" max="8971" width="13.75" customWidth="1"/>
+    <col min="8970" max="8971" width="13.6640625" customWidth="1"/>
     <col min="8972" max="8973" width="16.5" customWidth="1"/>
     <col min="8974" max="8975" width="9.1640625" customWidth="1"/>
     <col min="8976" max="8976" width="27.5" customWidth="1"/>
@@ -914,10 +938,10 @@
     <col min="9218" max="9218" width="27.5" customWidth="1"/>
     <col min="9219" max="9219" width="55" customWidth="1"/>
     <col min="9220" max="9220" width="27.5" customWidth="1"/>
-    <col min="9221" max="9221" width="13.75" customWidth="1"/>
+    <col min="9221" max="9221" width="13.6640625" customWidth="1"/>
     <col min="9222" max="9222" width="18.33203125" customWidth="1"/>
     <col min="9223" max="9225" width="27.5" customWidth="1"/>
-    <col min="9226" max="9227" width="13.75" customWidth="1"/>
+    <col min="9226" max="9227" width="13.6640625" customWidth="1"/>
     <col min="9228" max="9229" width="16.5" customWidth="1"/>
     <col min="9230" max="9231" width="9.1640625" customWidth="1"/>
     <col min="9232" max="9232" width="27.5" customWidth="1"/>
@@ -925,10 +949,10 @@
     <col min="9474" max="9474" width="27.5" customWidth="1"/>
     <col min="9475" max="9475" width="55" customWidth="1"/>
     <col min="9476" max="9476" width="27.5" customWidth="1"/>
-    <col min="9477" max="9477" width="13.75" customWidth="1"/>
+    <col min="9477" max="9477" width="13.6640625" customWidth="1"/>
     <col min="9478" max="9478" width="18.33203125" customWidth="1"/>
     <col min="9479" max="9481" width="27.5" customWidth="1"/>
-    <col min="9482" max="9483" width="13.75" customWidth="1"/>
+    <col min="9482" max="9483" width="13.6640625" customWidth="1"/>
     <col min="9484" max="9485" width="16.5" customWidth="1"/>
     <col min="9486" max="9487" width="9.1640625" customWidth="1"/>
     <col min="9488" max="9488" width="27.5" customWidth="1"/>
@@ -936,10 +960,10 @@
     <col min="9730" max="9730" width="27.5" customWidth="1"/>
     <col min="9731" max="9731" width="55" customWidth="1"/>
     <col min="9732" max="9732" width="27.5" customWidth="1"/>
-    <col min="9733" max="9733" width="13.75" customWidth="1"/>
+    <col min="9733" max="9733" width="13.6640625" customWidth="1"/>
     <col min="9734" max="9734" width="18.33203125" customWidth="1"/>
     <col min="9735" max="9737" width="27.5" customWidth="1"/>
-    <col min="9738" max="9739" width="13.75" customWidth="1"/>
+    <col min="9738" max="9739" width="13.6640625" customWidth="1"/>
     <col min="9740" max="9741" width="16.5" customWidth="1"/>
     <col min="9742" max="9743" width="9.1640625" customWidth="1"/>
     <col min="9744" max="9744" width="27.5" customWidth="1"/>
@@ -947,10 +971,10 @@
     <col min="9986" max="9986" width="27.5" customWidth="1"/>
     <col min="9987" max="9987" width="55" customWidth="1"/>
     <col min="9988" max="9988" width="27.5" customWidth="1"/>
-    <col min="9989" max="9989" width="13.75" customWidth="1"/>
+    <col min="9989" max="9989" width="13.6640625" customWidth="1"/>
     <col min="9990" max="9990" width="18.33203125" customWidth="1"/>
     <col min="9991" max="9993" width="27.5" customWidth="1"/>
-    <col min="9994" max="9995" width="13.75" customWidth="1"/>
+    <col min="9994" max="9995" width="13.6640625" customWidth="1"/>
     <col min="9996" max="9997" width="16.5" customWidth="1"/>
     <col min="9998" max="9999" width="9.1640625" customWidth="1"/>
     <col min="10000" max="10000" width="27.5" customWidth="1"/>
@@ -958,10 +982,10 @@
     <col min="10242" max="10242" width="27.5" customWidth="1"/>
     <col min="10243" max="10243" width="55" customWidth="1"/>
     <col min="10244" max="10244" width="27.5" customWidth="1"/>
-    <col min="10245" max="10245" width="13.75" customWidth="1"/>
+    <col min="10245" max="10245" width="13.6640625" customWidth="1"/>
     <col min="10246" max="10246" width="18.33203125" customWidth="1"/>
     <col min="10247" max="10249" width="27.5" customWidth="1"/>
-    <col min="10250" max="10251" width="13.75" customWidth="1"/>
+    <col min="10250" max="10251" width="13.6640625" customWidth="1"/>
     <col min="10252" max="10253" width="16.5" customWidth="1"/>
     <col min="10254" max="10255" width="9.1640625" customWidth="1"/>
     <col min="10256" max="10256" width="27.5" customWidth="1"/>
@@ -969,10 +993,10 @@
     <col min="10498" max="10498" width="27.5" customWidth="1"/>
     <col min="10499" max="10499" width="55" customWidth="1"/>
     <col min="10500" max="10500" width="27.5" customWidth="1"/>
-    <col min="10501" max="10501" width="13.75" customWidth="1"/>
+    <col min="10501" max="10501" width="13.6640625" customWidth="1"/>
     <col min="10502" max="10502" width="18.33203125" customWidth="1"/>
     <col min="10503" max="10505" width="27.5" customWidth="1"/>
-    <col min="10506" max="10507" width="13.75" customWidth="1"/>
+    <col min="10506" max="10507" width="13.6640625" customWidth="1"/>
     <col min="10508" max="10509" width="16.5" customWidth="1"/>
     <col min="10510" max="10511" width="9.1640625" customWidth="1"/>
     <col min="10512" max="10512" width="27.5" customWidth="1"/>
@@ -980,10 +1004,10 @@
     <col min="10754" max="10754" width="27.5" customWidth="1"/>
     <col min="10755" max="10755" width="55" customWidth="1"/>
     <col min="10756" max="10756" width="27.5" customWidth="1"/>
-    <col min="10757" max="10757" width="13.75" customWidth="1"/>
+    <col min="10757" max="10757" width="13.6640625" customWidth="1"/>
     <col min="10758" max="10758" width="18.33203125" customWidth="1"/>
     <col min="10759" max="10761" width="27.5" customWidth="1"/>
-    <col min="10762" max="10763" width="13.75" customWidth="1"/>
+    <col min="10762" max="10763" width="13.6640625" customWidth="1"/>
     <col min="10764" max="10765" width="16.5" customWidth="1"/>
     <col min="10766" max="10767" width="9.1640625" customWidth="1"/>
     <col min="10768" max="10768" width="27.5" customWidth="1"/>
@@ -991,10 +1015,10 @@
     <col min="11010" max="11010" width="27.5" customWidth="1"/>
     <col min="11011" max="11011" width="55" customWidth="1"/>
     <col min="11012" max="11012" width="27.5" customWidth="1"/>
-    <col min="11013" max="11013" width="13.75" customWidth="1"/>
+    <col min="11013" max="11013" width="13.6640625" customWidth="1"/>
     <col min="11014" max="11014" width="18.33203125" customWidth="1"/>
     <col min="11015" max="11017" width="27.5" customWidth="1"/>
-    <col min="11018" max="11019" width="13.75" customWidth="1"/>
+    <col min="11018" max="11019" width="13.6640625" customWidth="1"/>
     <col min="11020" max="11021" width="16.5" customWidth="1"/>
     <col min="11022" max="11023" width="9.1640625" customWidth="1"/>
     <col min="11024" max="11024" width="27.5" customWidth="1"/>
@@ -1002,10 +1026,10 @@
     <col min="11266" max="11266" width="27.5" customWidth="1"/>
     <col min="11267" max="11267" width="55" customWidth="1"/>
     <col min="11268" max="11268" width="27.5" customWidth="1"/>
-    <col min="11269" max="11269" width="13.75" customWidth="1"/>
+    <col min="11269" max="11269" width="13.6640625" customWidth="1"/>
     <col min="11270" max="11270" width="18.33203125" customWidth="1"/>
     <col min="11271" max="11273" width="27.5" customWidth="1"/>
-    <col min="11274" max="11275" width="13.75" customWidth="1"/>
+    <col min="11274" max="11275" width="13.6640625" customWidth="1"/>
     <col min="11276" max="11277" width="16.5" customWidth="1"/>
     <col min="11278" max="11279" width="9.1640625" customWidth="1"/>
     <col min="11280" max="11280" width="27.5" customWidth="1"/>
@@ -1013,10 +1037,10 @@
     <col min="11522" max="11522" width="27.5" customWidth="1"/>
     <col min="11523" max="11523" width="55" customWidth="1"/>
     <col min="11524" max="11524" width="27.5" customWidth="1"/>
-    <col min="11525" max="11525" width="13.75" customWidth="1"/>
+    <col min="11525" max="11525" width="13.6640625" customWidth="1"/>
     <col min="11526" max="11526" width="18.33203125" customWidth="1"/>
     <col min="11527" max="11529" width="27.5" customWidth="1"/>
-    <col min="11530" max="11531" width="13.75" customWidth="1"/>
+    <col min="11530" max="11531" width="13.6640625" customWidth="1"/>
     <col min="11532" max="11533" width="16.5" customWidth="1"/>
     <col min="11534" max="11535" width="9.1640625" customWidth="1"/>
     <col min="11536" max="11536" width="27.5" customWidth="1"/>
@@ -1024,10 +1048,10 @@
     <col min="11778" max="11778" width="27.5" customWidth="1"/>
     <col min="11779" max="11779" width="55" customWidth="1"/>
     <col min="11780" max="11780" width="27.5" customWidth="1"/>
-    <col min="11781" max="11781" width="13.75" customWidth="1"/>
+    <col min="11781" max="11781" width="13.6640625" customWidth="1"/>
     <col min="11782" max="11782" width="18.33203125" customWidth="1"/>
     <col min="11783" max="11785" width="27.5" customWidth="1"/>
-    <col min="11786" max="11787" width="13.75" customWidth="1"/>
+    <col min="11786" max="11787" width="13.6640625" customWidth="1"/>
     <col min="11788" max="11789" width="16.5" customWidth="1"/>
     <col min="11790" max="11791" width="9.1640625" customWidth="1"/>
     <col min="11792" max="11792" width="27.5" customWidth="1"/>
@@ -1035,10 +1059,10 @@
     <col min="12034" max="12034" width="27.5" customWidth="1"/>
     <col min="12035" max="12035" width="55" customWidth="1"/>
     <col min="12036" max="12036" width="27.5" customWidth="1"/>
-    <col min="12037" max="12037" width="13.75" customWidth="1"/>
+    <col min="12037" max="12037" width="13.6640625" customWidth="1"/>
     <col min="12038" max="12038" width="18.33203125" customWidth="1"/>
     <col min="12039" max="12041" width="27.5" customWidth="1"/>
-    <col min="12042" max="12043" width="13.75" customWidth="1"/>
+    <col min="12042" max="12043" width="13.6640625" customWidth="1"/>
     <col min="12044" max="12045" width="16.5" customWidth="1"/>
     <col min="12046" max="12047" width="9.1640625" customWidth="1"/>
     <col min="12048" max="12048" width="27.5" customWidth="1"/>
@@ -1046,10 +1070,10 @@
     <col min="12290" max="12290" width="27.5" customWidth="1"/>
     <col min="12291" max="12291" width="55" customWidth="1"/>
     <col min="12292" max="12292" width="27.5" customWidth="1"/>
-    <col min="12293" max="12293" width="13.75" customWidth="1"/>
+    <col min="12293" max="12293" width="13.6640625" customWidth="1"/>
     <col min="12294" max="12294" width="18.33203125" customWidth="1"/>
     <col min="12295" max="12297" width="27.5" customWidth="1"/>
-    <col min="12298" max="12299" width="13.75" customWidth="1"/>
+    <col min="12298" max="12299" width="13.6640625" customWidth="1"/>
     <col min="12300" max="12301" width="16.5" customWidth="1"/>
     <col min="12302" max="12303" width="9.1640625" customWidth="1"/>
     <col min="12304" max="12304" width="27.5" customWidth="1"/>
@@ -1057,10 +1081,10 @@
     <col min="12546" max="12546" width="27.5" customWidth="1"/>
     <col min="12547" max="12547" width="55" customWidth="1"/>
     <col min="12548" max="12548" width="27.5" customWidth="1"/>
-    <col min="12549" max="12549" width="13.75" customWidth="1"/>
+    <col min="12549" max="12549" width="13.6640625" customWidth="1"/>
     <col min="12550" max="12550" width="18.33203125" customWidth="1"/>
     <col min="12551" max="12553" width="27.5" customWidth="1"/>
-    <col min="12554" max="12555" width="13.75" customWidth="1"/>
+    <col min="12554" max="12555" width="13.6640625" customWidth="1"/>
     <col min="12556" max="12557" width="16.5" customWidth="1"/>
     <col min="12558" max="12559" width="9.1640625" customWidth="1"/>
     <col min="12560" max="12560" width="27.5" customWidth="1"/>
@@ -1068,10 +1092,10 @@
     <col min="12802" max="12802" width="27.5" customWidth="1"/>
     <col min="12803" max="12803" width="55" customWidth="1"/>
     <col min="12804" max="12804" width="27.5" customWidth="1"/>
-    <col min="12805" max="12805" width="13.75" customWidth="1"/>
+    <col min="12805" max="12805" width="13.6640625" customWidth="1"/>
     <col min="12806" max="12806" width="18.33203125" customWidth="1"/>
     <col min="12807" max="12809" width="27.5" customWidth="1"/>
-    <col min="12810" max="12811" width="13.75" customWidth="1"/>
+    <col min="12810" max="12811" width="13.6640625" customWidth="1"/>
     <col min="12812" max="12813" width="16.5" customWidth="1"/>
     <col min="12814" max="12815" width="9.1640625" customWidth="1"/>
     <col min="12816" max="12816" width="27.5" customWidth="1"/>
@@ -1079,10 +1103,10 @@
     <col min="13058" max="13058" width="27.5" customWidth="1"/>
     <col min="13059" max="13059" width="55" customWidth="1"/>
     <col min="13060" max="13060" width="27.5" customWidth="1"/>
-    <col min="13061" max="13061" width="13.75" customWidth="1"/>
+    <col min="13061" max="13061" width="13.6640625" customWidth="1"/>
     <col min="13062" max="13062" width="18.33203125" customWidth="1"/>
     <col min="13063" max="13065" width="27.5" customWidth="1"/>
-    <col min="13066" max="13067" width="13.75" customWidth="1"/>
+    <col min="13066" max="13067" width="13.6640625" customWidth="1"/>
     <col min="13068" max="13069" width="16.5" customWidth="1"/>
     <col min="13070" max="13071" width="9.1640625" customWidth="1"/>
     <col min="13072" max="13072" width="27.5" customWidth="1"/>
@@ -1090,10 +1114,10 @@
     <col min="13314" max="13314" width="27.5" customWidth="1"/>
     <col min="13315" max="13315" width="55" customWidth="1"/>
     <col min="13316" max="13316" width="27.5" customWidth="1"/>
-    <col min="13317" max="13317" width="13.75" customWidth="1"/>
+    <col min="13317" max="13317" width="13.6640625" customWidth="1"/>
     <col min="13318" max="13318" width="18.33203125" customWidth="1"/>
     <col min="13319" max="13321" width="27.5" customWidth="1"/>
-    <col min="13322" max="13323" width="13.75" customWidth="1"/>
+    <col min="13322" max="13323" width="13.6640625" customWidth="1"/>
     <col min="13324" max="13325" width="16.5" customWidth="1"/>
     <col min="13326" max="13327" width="9.1640625" customWidth="1"/>
     <col min="13328" max="13328" width="27.5" customWidth="1"/>
@@ -1101,10 +1125,10 @@
     <col min="13570" max="13570" width="27.5" customWidth="1"/>
     <col min="13571" max="13571" width="55" customWidth="1"/>
     <col min="13572" max="13572" width="27.5" customWidth="1"/>
-    <col min="13573" max="13573" width="13.75" customWidth="1"/>
+    <col min="13573" max="13573" width="13.6640625" customWidth="1"/>
     <col min="13574" max="13574" width="18.33203125" customWidth="1"/>
     <col min="13575" max="13577" width="27.5" customWidth="1"/>
-    <col min="13578" max="13579" width="13.75" customWidth="1"/>
+    <col min="13578" max="13579" width="13.6640625" customWidth="1"/>
     <col min="13580" max="13581" width="16.5" customWidth="1"/>
     <col min="13582" max="13583" width="9.1640625" customWidth="1"/>
     <col min="13584" max="13584" width="27.5" customWidth="1"/>
@@ -1112,10 +1136,10 @@
     <col min="13826" max="13826" width="27.5" customWidth="1"/>
     <col min="13827" max="13827" width="55" customWidth="1"/>
     <col min="13828" max="13828" width="27.5" customWidth="1"/>
-    <col min="13829" max="13829" width="13.75" customWidth="1"/>
+    <col min="13829" max="13829" width="13.6640625" customWidth="1"/>
     <col min="13830" max="13830" width="18.33203125" customWidth="1"/>
     <col min="13831" max="13833" width="27.5" customWidth="1"/>
-    <col min="13834" max="13835" width="13.75" customWidth="1"/>
+    <col min="13834" max="13835" width="13.6640625" customWidth="1"/>
     <col min="13836" max="13837" width="16.5" customWidth="1"/>
     <col min="13838" max="13839" width="9.1640625" customWidth="1"/>
     <col min="13840" max="13840" width="27.5" customWidth="1"/>
@@ -1123,10 +1147,10 @@
     <col min="14082" max="14082" width="27.5" customWidth="1"/>
     <col min="14083" max="14083" width="55" customWidth="1"/>
     <col min="14084" max="14084" width="27.5" customWidth="1"/>
-    <col min="14085" max="14085" width="13.75" customWidth="1"/>
+    <col min="14085" max="14085" width="13.6640625" customWidth="1"/>
     <col min="14086" max="14086" width="18.33203125" customWidth="1"/>
     <col min="14087" max="14089" width="27.5" customWidth="1"/>
-    <col min="14090" max="14091" width="13.75" customWidth="1"/>
+    <col min="14090" max="14091" width="13.6640625" customWidth="1"/>
     <col min="14092" max="14093" width="16.5" customWidth="1"/>
     <col min="14094" max="14095" width="9.1640625" customWidth="1"/>
     <col min="14096" max="14096" width="27.5" customWidth="1"/>
@@ -1134,10 +1158,10 @@
     <col min="14338" max="14338" width="27.5" customWidth="1"/>
     <col min="14339" max="14339" width="55" customWidth="1"/>
     <col min="14340" max="14340" width="27.5" customWidth="1"/>
-    <col min="14341" max="14341" width="13.75" customWidth="1"/>
+    <col min="14341" max="14341" width="13.6640625" customWidth="1"/>
     <col min="14342" max="14342" width="18.33203125" customWidth="1"/>
     <col min="14343" max="14345" width="27.5" customWidth="1"/>
-    <col min="14346" max="14347" width="13.75" customWidth="1"/>
+    <col min="14346" max="14347" width="13.6640625" customWidth="1"/>
     <col min="14348" max="14349" width="16.5" customWidth="1"/>
     <col min="14350" max="14351" width="9.1640625" customWidth="1"/>
     <col min="14352" max="14352" width="27.5" customWidth="1"/>
@@ -1145,10 +1169,10 @@
     <col min="14594" max="14594" width="27.5" customWidth="1"/>
     <col min="14595" max="14595" width="55" customWidth="1"/>
     <col min="14596" max="14596" width="27.5" customWidth="1"/>
-    <col min="14597" max="14597" width="13.75" customWidth="1"/>
+    <col min="14597" max="14597" width="13.6640625" customWidth="1"/>
     <col min="14598" max="14598" width="18.33203125" customWidth="1"/>
     <col min="14599" max="14601" width="27.5" customWidth="1"/>
-    <col min="14602" max="14603" width="13.75" customWidth="1"/>
+    <col min="14602" max="14603" width="13.6640625" customWidth="1"/>
     <col min="14604" max="14605" width="16.5" customWidth="1"/>
     <col min="14606" max="14607" width="9.1640625" customWidth="1"/>
     <col min="14608" max="14608" width="27.5" customWidth="1"/>
@@ -1156,10 +1180,10 @@
     <col min="14850" max="14850" width="27.5" customWidth="1"/>
     <col min="14851" max="14851" width="55" customWidth="1"/>
     <col min="14852" max="14852" width="27.5" customWidth="1"/>
-    <col min="14853" max="14853" width="13.75" customWidth="1"/>
+    <col min="14853" max="14853" width="13.6640625" customWidth="1"/>
     <col min="14854" max="14854" width="18.33203125" customWidth="1"/>
     <col min="14855" max="14857" width="27.5" customWidth="1"/>
-    <col min="14858" max="14859" width="13.75" customWidth="1"/>
+    <col min="14858" max="14859" width="13.6640625" customWidth="1"/>
     <col min="14860" max="14861" width="16.5" customWidth="1"/>
     <col min="14862" max="14863" width="9.1640625" customWidth="1"/>
     <col min="14864" max="14864" width="27.5" customWidth="1"/>
@@ -1167,10 +1191,10 @@
     <col min="15106" max="15106" width="27.5" customWidth="1"/>
     <col min="15107" max="15107" width="55" customWidth="1"/>
     <col min="15108" max="15108" width="27.5" customWidth="1"/>
-    <col min="15109" max="15109" width="13.75" customWidth="1"/>
+    <col min="15109" max="15109" width="13.6640625" customWidth="1"/>
     <col min="15110" max="15110" width="18.33203125" customWidth="1"/>
     <col min="15111" max="15113" width="27.5" customWidth="1"/>
-    <col min="15114" max="15115" width="13.75" customWidth="1"/>
+    <col min="15114" max="15115" width="13.6640625" customWidth="1"/>
     <col min="15116" max="15117" width="16.5" customWidth="1"/>
     <col min="15118" max="15119" width="9.1640625" customWidth="1"/>
     <col min="15120" max="15120" width="27.5" customWidth="1"/>
@@ -1178,10 +1202,10 @@
     <col min="15362" max="15362" width="27.5" customWidth="1"/>
     <col min="15363" max="15363" width="55" customWidth="1"/>
     <col min="15364" max="15364" width="27.5" customWidth="1"/>
-    <col min="15365" max="15365" width="13.75" customWidth="1"/>
+    <col min="15365" max="15365" width="13.6640625" customWidth="1"/>
     <col min="15366" max="15366" width="18.33203125" customWidth="1"/>
     <col min="15367" max="15369" width="27.5" customWidth="1"/>
-    <col min="15370" max="15371" width="13.75" customWidth="1"/>
+    <col min="15370" max="15371" width="13.6640625" customWidth="1"/>
     <col min="15372" max="15373" width="16.5" customWidth="1"/>
     <col min="15374" max="15375" width="9.1640625" customWidth="1"/>
     <col min="15376" max="15376" width="27.5" customWidth="1"/>
@@ -1189,10 +1213,10 @@
     <col min="15618" max="15618" width="27.5" customWidth="1"/>
     <col min="15619" max="15619" width="55" customWidth="1"/>
     <col min="15620" max="15620" width="27.5" customWidth="1"/>
-    <col min="15621" max="15621" width="13.75" customWidth="1"/>
+    <col min="15621" max="15621" width="13.6640625" customWidth="1"/>
     <col min="15622" max="15622" width="18.33203125" customWidth="1"/>
     <col min="15623" max="15625" width="27.5" customWidth="1"/>
-    <col min="15626" max="15627" width="13.75" customWidth="1"/>
+    <col min="15626" max="15627" width="13.6640625" customWidth="1"/>
     <col min="15628" max="15629" width="16.5" customWidth="1"/>
     <col min="15630" max="15631" width="9.1640625" customWidth="1"/>
     <col min="15632" max="15632" width="27.5" customWidth="1"/>
@@ -1200,10 +1224,10 @@
     <col min="15874" max="15874" width="27.5" customWidth="1"/>
     <col min="15875" max="15875" width="55" customWidth="1"/>
     <col min="15876" max="15876" width="27.5" customWidth="1"/>
-    <col min="15877" max="15877" width="13.75" customWidth="1"/>
+    <col min="15877" max="15877" width="13.6640625" customWidth="1"/>
     <col min="15878" max="15878" width="18.33203125" customWidth="1"/>
     <col min="15879" max="15881" width="27.5" customWidth="1"/>
-    <col min="15882" max="15883" width="13.75" customWidth="1"/>
+    <col min="15882" max="15883" width="13.6640625" customWidth="1"/>
     <col min="15884" max="15885" width="16.5" customWidth="1"/>
     <col min="15886" max="15887" width="9.1640625" customWidth="1"/>
     <col min="15888" max="15888" width="27.5" customWidth="1"/>
@@ -1211,17 +1235,19 @@
     <col min="16130" max="16130" width="27.5" customWidth="1"/>
     <col min="16131" max="16131" width="55" customWidth="1"/>
     <col min="16132" max="16132" width="27.5" customWidth="1"/>
-    <col min="16133" max="16133" width="13.75" customWidth="1"/>
+    <col min="16133" max="16133" width="13.6640625" customWidth="1"/>
     <col min="16134" max="16134" width="18.33203125" customWidth="1"/>
     <col min="16135" max="16137" width="27.5" customWidth="1"/>
-    <col min="16138" max="16139" width="13.75" customWidth="1"/>
+    <col min="16138" max="16139" width="13.6640625" customWidth="1"/>
     <col min="16140" max="16141" width="16.5" customWidth="1"/>
     <col min="16142" max="16143" width="9.1640625" customWidth="1"/>
     <col min="16144" max="16144" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
+    <row r="1" spans="1:16" ht="30" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1238,91 +1264,91 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/unity-business-innovation/src/main/resources/template/invest.xlsx
+++ b/unity-business-innovation/src/main/resources/template/invest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43248321-8043-634F-BE38-574F7E9B93D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D15DD-8331-8046-8580-9105E801BD15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8340" yWindow="8100" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,47 +148,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -220,19 +185,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -241,16 +234,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -534,7 +524,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1245,72 +1235,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
